--- a/Example- Demo/5US Platform/Components/Mech Param.xlsx
+++ b/Example- Demo/5US Platform/Components/Mech Param.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop 2019\MS, Phd\Sem8- 2019 Spring (RA, 3research)\Spatial approach- Spherical and Planar synthesis\CAD\5US Platform Xin-2\Components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sshel\Documents\GitHub\5ss-platform-synthesis\Example- Demo\5US Platform\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D034AB20-2A23-4E82-BA80-5CCFBDF23F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A582283E-674E-49D3-BEE6-B6EB4302ABF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,7 +353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -365,7 +367,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
